--- a/biology/Zoologie/Chéri,_j'ai_agrandi_le_chien/Chéri,_j'ai_agrandi_le_chien.xlsx
+++ b/biology/Zoologie/Chéri,_j'ai_agrandi_le_chien/Chéri,_j'ai_agrandi_le_chien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A9ri,_j%27ai_agrandi_le_chien</t>
+          <t>Chéri,_j'ai_agrandi_le_chien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chéri, j'ai agrandi le chien (Monster Mutt) est un téléfilm américain réalisé par Todd Tucker et diffusé en 2011.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A9ri,_j%27ai_agrandi_le_chien</t>
+          <t>Chéri,_j'ai_agrandi_le_chien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un vilain cherche à enlever le chien pour des expériences atroces, en obligeant un scientifique à le servir.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A9ri,_j%27ai_agrandi_le_chien</t>
+          <t>Chéri,_j'ai_agrandi_le_chien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Monster Mutt
 Titre français : Chéri, j'ai agrandi le chien
-Autre titre : Max le géant[1]
+Autre titre : Max le géant
 Réalisation : Todd Tucker
 Scénario : Todd Tucker et Timoth Dolan
 Photographie : Yaron Levy
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A9ri,_j%27ai_agrandi_le_chien</t>
+          <t>Chéri,_j'ai_agrandi_le_chien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rhiannon Leigh Wryn : Ashley Taylor
 Bart Johnson : Jeff Taylor
